--- a/FinalProject/my_test.xlsx
+++ b/FinalProject/my_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,36 @@
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>x_phase 1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>x_phase 2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>x_phase 3</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>x_phase 4</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>x_phase 5</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>x_phase 6</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>phase is 30cm</t>
         </is>
@@ -563,6 +593,12 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -592,6 +628,12 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -692,7 +734,37 @@
           <t>642</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -722,6 +794,12 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -751,6 +829,12 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/FinalProject/my_test.xlsx
+++ b/FinalProject/my_test.xlsx
@@ -574,30 +574,126 @@
           <t>lowest</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -609,30 +705,126 @@
           <t>lower</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -775,30 +967,126 @@
           <t>higher</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -810,30 +1098,126 @@
           <t>highest</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
   </sheetData>
